--- a/Support/LLtabulka.xlsx
+++ b/Support/LLtabulka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38c8ea5840298ecb/Documents/ja/IFJ/projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{265EEF2D-2C57-4A39-B4BE-87730F2A8BF2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{265EEF2D-2C57-4A39-B4BE-87730F2A8BF2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{CFEB9F1D-D6BD-4646-82FC-E1D4D5CFE995}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{04D535E4-0FD5-43F2-91AD-5F00B3DEEFC0}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="87">
   <si>
     <t>deffunc</t>
   </si>
@@ -1836,13 +1836,16 @@
   </si>
   <si>
     <t>predict</t>
+  </si>
+  <si>
+    <t>má být v tabulce ještě dolar a celkový "program"??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1911,16 +1914,38 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1928,11 +1953,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
@@ -1940,10 +2041,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Poznámka" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2257,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D7B905-AE8D-4B24-B292-2A96FE6D27E7}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,52 +2392,53 @@
       <c r="H1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2353,12 +2461,27 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="6">
         <v>1</v>
       </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2379,15 +2502,29 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6">
         <v>2</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="6">
         <v>3</v>
       </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2408,15 +2545,29 @@
       <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O4">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
         <v>5</v>
       </c>
-      <c r="S4">
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6">
         <v>4</v>
       </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2437,33 +2588,41 @@
       <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>6</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>13</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="6">
         <v>11</v>
       </c>
-      <c r="Q5">
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6">
         <v>8</v>
       </c>
-      <c r="T5">
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6">
         <v>9</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="6">
         <v>12</v>
       </c>
-      <c r="W5">
+      <c r="V5" s="6"/>
+      <c r="W5" s="6">
         <v>7</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="6">
         <v>10</v>
       </c>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2484,15 +2643,29 @@
       <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q6">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6">
         <v>14</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="6">
         <v>15</v>
       </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2513,12 +2686,27 @@
       <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T7">
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6">
         <v>16</v>
       </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2539,33 +2727,41 @@
       <c r="H8" t="s">
         <v>26</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M8">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6">
         <v>23</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="6">
         <v>21</v>
       </c>
-      <c r="Q8">
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6">
         <v>19</v>
       </c>
-      <c r="T8">
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6">
         <v>18</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="6">
         <v>22</v>
       </c>
-      <c r="W8">
+      <c r="V8" s="6"/>
+      <c r="W8" s="6">
         <v>17</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="6">
         <v>20</v>
       </c>
-      <c r="Z8">
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6">
         <v>17</v>
       </c>
+      <c r="AA8" s="6"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2586,12 +2782,27 @@
       <c r="H9" t="s">
         <v>19</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="X9">
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6">
         <v>24</v>
       </c>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2612,12 +2823,27 @@
       <c r="H10" t="s">
         <v>23</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N10">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6">
         <v>25</v>
       </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2638,15 +2864,29 @@
       <c r="H11" t="s">
         <v>27</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M11">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6">
         <v>26</v>
       </c>
-      <c r="U11">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6">
         <v>27</v>
       </c>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2667,15 +2907,29 @@
       <c r="H12" t="s">
         <v>22</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P12">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6">
         <v>29</v>
       </c>
-      <c r="U12">
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6">
         <v>28</v>
       </c>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2696,18 +2950,31 @@
       <c r="H13" t="s">
         <v>24</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O13">
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
         <v>35</v>
       </c>
-      <c r="Q13">
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6">
         <v>34</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="6">
         <v>34</v>
       </c>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2728,21 +2995,33 @@
       <c r="H14" t="s">
         <v>16</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O14">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
         <v>31</v>
       </c>
-      <c r="Q14">
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6">
         <v>31</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="6">
         <v>31</v>
       </c>
-      <c r="U14">
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6">
         <v>30</v>
       </c>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2763,21 +3042,33 @@
       <c r="H15" t="s">
         <v>19</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O15">
-        <v>32</v>
-      </c>
-      <c r="Q15">
-        <v>32</v>
-      </c>
-      <c r="R15">
-        <v>32</v>
-      </c>
-      <c r="S15">
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6">
+        <v>32</v>
+      </c>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6">
+        <v>32</v>
+      </c>
+      <c r="R15" s="6">
+        <v>32</v>
+      </c>
+      <c r="S15" s="6">
         <v>33</v>
       </c>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2798,14 +3089,29 @@
       <c r="H16" t="s">
         <v>20</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="U16">
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2824,14 +3130,29 @@
       <c r="H17" t="s">
         <v>23</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M17">
+      <c r="L17" s="6"/>
+      <c r="M17" s="6">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2851,7 +3172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2871,7 +3192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2890,8 +3211,17 @@
       <c r="H20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2911,7 +3241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2931,7 +3261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2951,7 +3281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2971,7 +3301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2991,7 +3321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3011,7 +3341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3031,7 +3361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3051,7 +3381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3071,7 +3401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -3091,7 +3421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -3111,7 +3441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
